--- a/06 Plan de Auditoria/G4_Backlog v2.2.xlsx
+++ b/06 Plan de Auditoria/G4_Backlog v2.2.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="sprint0" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="DlRCGhnXsiwmXNamKU6VxEinMXWz3gUmCPxa7Y2HE9Y="/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>REQ012</t>
+  </si>
+  <si>
+    <t>Responsible</t>
   </si>
 </sst>
 </file>
@@ -507,27 +510,32 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -537,6 +545,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -687,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -771,23 +780,24 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,11 +1001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="379884776"/>
-        <c:axId val="379885560"/>
+        <c:axId val="376408560"/>
+        <c:axId val="376408952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="379884776"/>
+        <c:axId val="376408560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1041,7 +1050,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379885560"/>
+        <c:crossAx val="376408952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1058,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379885560"/>
+        <c:axId val="376408952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1091,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1107,14 +1115,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379884776"/>
+        <c:crossAx val="376408560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1159,7 +1166,7 @@
         <xdr:cNvPr id="362873004" name="Chart 1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC00A115}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC00A115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,10 +1402,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1002"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1407,16 +1414,18 @@
     <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="54.44140625" customWidth="1"/>
-    <col min="6" max="26" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="27" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,16 +1442,19 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1458,15 +1470,18 @@
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1482,15 +1497,18 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1506,15 +1524,18 @@
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1530,15 +1551,18 @@
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1554,15 +1578,18 @@
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1578,15 +1605,18 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1602,15 +1632,18 @@
       <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1626,15 +1659,18 @@
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1650,15 +1686,18 @@
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1674,15 +1713,18 @@
       <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1698,15 +1740,18 @@
       <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>152</v>
       </c>
@@ -1722,16 +1767,19 @@
       <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1740,9 +1788,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B17" s="41"/>
+      <c r="B17" s="34"/>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="19" spans="2:2" ht="15.75" customHeight="1"/>
@@ -2742,8 +2791,8 @@
   </sheetPr>
   <dimension ref="B1:I994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2757,16 +2806,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
@@ -2838,12 +2887,12 @@
       <c r="B7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="10" t="s">
         <v>143</v>
       </c>
@@ -2921,12 +2970,12 @@
       <c r="B12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="10" t="s">
         <v>143</v>
       </c>
@@ -3012,12 +3061,12 @@
       <c r="B17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="10" t="s">
         <v>144</v>
       </c>
@@ -3027,16 +3076,16 @@
     </row>
     <row r="18" spans="2:9" ht="25.5" customHeight="1"/>
     <row r="19" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="21" spans="2:9" ht="15.75" customHeight="1"/>
@@ -3109,12 +3158,12 @@
       <c r="B25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="10" t="s">
         <v>143</v>
       </c>
@@ -3192,12 +3241,12 @@
       <c r="B30" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="12" t="s">
         <v>84</v>
       </c>
@@ -3275,12 +3324,12 @@
       <c r="B35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="12" t="s">
         <v>84</v>
       </c>
@@ -3358,12 +3407,12 @@
       <c r="B40" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="12" t="s">
         <v>84</v>
       </c>
@@ -3381,16 +3430,16 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
@@ -3462,12 +3511,12 @@
       <c r="B47" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="12" t="s">
         <v>84</v>
       </c>
@@ -3479,12 +3528,12 @@
       <c r="B48" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="12" t="s">
         <v>84</v>
       </c>
@@ -3496,12 +3545,12 @@
       <c r="B49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="12" t="s">
         <v>84</v>
       </c>
@@ -3579,12 +3628,12 @@
       <c r="B54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="14" t="s">
         <v>145</v>
       </c>
@@ -3662,12 +3711,12 @@
       <c r="B59" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="14" t="s">
         <v>145</v>
       </c>
@@ -3685,16 +3734,16 @@
       <c r="H60" s="31"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:9" ht="15.75" customHeight="1">
@@ -3766,12 +3815,12 @@
       <c r="B66" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
       <c r="G66" s="14" t="s">
         <v>145</v>
       </c>
@@ -3849,12 +3898,12 @@
       <c r="B71" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="37"/>
       <c r="G71" s="14" t="s">
         <v>146</v>
       </c>
@@ -3866,12 +3915,12 @@
       <c r="B72" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="14" t="s">
         <v>146</v>
       </c>
@@ -3883,12 +3932,12 @@
       <c r="B73" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="14" t="s">
         <v>146</v>
       </c>
@@ -4827,12 +4876,6 @@
     <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="C71:F71"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B42:I42"/>
@@ -4847,6 +4890,12 @@
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C71:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5475,26 +5524,26 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
